--- a/Matt_Barkley2018.xlsx
+++ b/Matt_Barkley2018.xlsx
@@ -15,77 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>https://www.pro-football-reference.com/players/B/BarkMa00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-11-11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28.064</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>NYJ</t>
-  </si>
-  <si>
-    <t>W 41-10</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>117.4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
-    <t>10.88</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-0.67</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,89 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>